--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,14 @@
   </si>
   <si>
     <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapResName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图关卡资源名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,31 +590,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="11.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="2" customWidth="1"/>
-    <col min="10" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="18.5546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="18.5546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -617,46 +625,49 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -667,20 +678,20 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
@@ -691,22 +702,25 @@
         <v>7</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -717,46 +731,49 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -767,7 +784,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>地图关卡资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,14 +600,15 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
@@ -780,6 +785,9 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -14,8 +14,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">配置battlegroupid
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +203,10 @@
   </si>
   <si>
     <t>map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +252,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -563,16 +597,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -593,33 +627,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="13.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="18.5546875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="8" max="9" width="11.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.5" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -672,7 +710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -725,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,7 +816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -787,6 +825,33 @@
       </c>
       <c r="D4" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -798,5 +863,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -14,32 +14,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">配置battlegroupid
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,14 +175,6 @@
   </si>
   <si>
     <t>地图关卡资源名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,12 +220,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -597,16 +559,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -627,37 +589,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
+    <col min="11" max="13" width="9" style="2"/>
+    <col min="14" max="14" width="18.5546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -710,7 +667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -763,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,42 +773,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="P4" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +790,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>地图关卡资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,14 +604,15 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
@@ -780,6 +789,12 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -601,10 +601,10 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,11 +616,12 @@
     <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="11.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2"/>
     <col min="14" max="14" width="18.5546875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="17.109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
@@ -794,6 +795,9 @@
       </c>
       <c r="N4" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -604,7 +604,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -797,7 +797,7 @@
         <v>42</v>
       </c>
       <c r="O4" s="2">
-        <v>1000</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -178,11 +174,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>map1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|2</t>
+    <t>云栈洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,27 +567,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -601,30 +601,30 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
     <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="18.5546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -635,102 +635,102 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,60 +741,60 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2">
         <v>6000</v>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="MapConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进图条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OpenParams</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,14 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MapLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图探索层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MapGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,15 +162,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>云栈洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过图条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -317,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,13 +586,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,16 +603,18 @@
     <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -635,49 +625,46 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -712,25 +699,22 @@
         <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -741,69 +725,90 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="2">
-        <v>6000</v>
+        <v>37</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10800</v>
+      </c>
+      <c r="K4" s="2">
+        <v>450</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,16 +555,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,29 +592,29 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -664,7 +664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -714,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="2">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/地图表.xlsx
+++ b/ExcelConfig/地图表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20250" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,18 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从属关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RandomBattle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机战斗库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RandomPro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,15 +150,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>过图条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云栈洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄风岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白骨洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波月洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莲花洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>map1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云栈洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过图条件</t>
+  </si>
+  <si>
+    <t>map2</t>
+  </si>
+  <si>
+    <t>map3</t>
+  </si>
+  <si>
+    <t>map4</t>
+  </si>
+  <si>
+    <t>map5</t>
+  </si>
+  <si>
+    <t>从属组集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +245,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,16 +270,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -263,7 +324,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -305,7 +366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +401,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,16 +616,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -586,35 +647,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -652,19 +714,16 @@
         <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -702,19 +761,16 @@
         <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -725,10 +781,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -749,42 +805,36 @@
         <v>24</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>30</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>50</v>
-      </c>
       <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -792,23 +842,210 @@
       <c r="J4" s="2">
         <v>10800</v>
       </c>
-      <c r="K4" s="2">
-        <v>450</v>
-      </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>10</v>
+        <v>3500</v>
       </c>
       <c r="N4" s="2">
-        <v>1000</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10800</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N5" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10800</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>142</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10800</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N7" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>191</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10800</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N8" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>244</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10800</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N9" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:P2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>
